--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>用例模块</t>
   </si>
@@ -26,61 +26,46 @@
     <t>用例名称</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>登陆成功1</t>
+  </si>
+  <si>
+    <t>{"url":"https://www.json.cn/"}</t>
+  </si>
+  <si>
+    <t>{"method":"GET"}</t>
+  </si>
+  <si>
+    <t>{"asserts":"200"}</t>
+  </si>
+  <si>
+    <t>登陆失败2</t>
+  </si>
+  <si>
+    <t>{"method":"POST"}</t>
+  </si>
+  <si>
+    <t>{"asserts":"400"}</t>
+  </si>
+  <si>
+    <t>登陆失败3</t>
+  </si>
+  <si>
     <t>测试参数</t>
   </si>
   <si>
     <t>预期</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>login_ succeed</t>
-  </si>
-  <si>
-    <t>{"username": "15607241351","pwd": "aaa111"}</t>
-  </si>
-  <si>
-    <t>{"suc": "succeed","assert": "个人资料"}</t>
-  </si>
-  <si>
-    <t>name_err</t>
-  </si>
-  <si>
-    <t>{"username": "u4272320562","pwd": "aaaa1111"}</t>
-  </si>
-  <si>
-    <t>{"suc": "name_err","assert": "请输入正确的手机号"}</t>
-  </si>
-  <si>
-    <t>s登录</t>
-  </si>
-  <si>
-    <t>name_null</t>
-  </si>
-  <si>
-    <t>{"username": "","pwd": "aaaa1111"}</t>
-  </si>
-  <si>
-    <t>{"suc": "name_err","assert": "请输入手机号"}</t>
-  </si>
-  <si>
-    <t>pwd_err</t>
-  </si>
-  <si>
-    <t>{"username": "15607241351","pwd":"liwanlei11"}</t>
-  </si>
-  <si>
-    <t>{"suc": "pwd_err","assert": "手机号或密码不正确！"}</t>
-  </si>
-  <si>
-    <t>pwd_null</t>
-  </si>
-  <si>
-    <t>{"username": "15607241351","pwd":""}</t>
-  </si>
-  <si>
-    <t>{"suc": "pwd_err","assert": "请输入密码"}</t>
   </si>
   <si>
     <t>添加病人</t>
@@ -215,9 +200,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -236,52 +221,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,10 +273,40 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,6 +326,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -334,39 +341,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +565,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,17 +638,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,32 +657,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,130 +680,130 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,20 +1133,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="49.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="64.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="37.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="21.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:4">
+    <row r="1" ht="15" customHeight="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1174,75 +1160,59 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1276,109 +1246,109 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1"/>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1404,76 +1374,76 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:1">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1499,58 +1469,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -28,6 +28,106 @@
     <author>PicaHealth</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>举例：https://www.jianshu.com/notes/38165068/rewards?count=20
+get</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>URL取域名到</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>"?"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>直接的内容</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>,不包含"?"例如</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：notes/38165068/rewards
+post</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> URL取域名后全部</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>地址</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -43,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +154,23 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>post请求不需要body</t>
+          <t xml:space="preserve">举例：https://www.jianshu.com/notes/38165068/rewards?count=20
+GET请求参数取"?"后面的内容：count=20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注意这里设置文本格式，否则可能会是数字，以200.0 展示</t>
         </r>
       </text>
     </comment>
@@ -63,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>用例模块</t>
   </si>
@@ -71,9 +187,6 @@
     <t>用例名称</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>请求方式</t>
   </si>
   <si>
@@ -83,18 +196,6 @@
     <t>登录</t>
   </si>
   <si>
-    <t>{"url":"https://www.json.cn/"}</t>
-  </si>
-  <si>
-    <t>{"asserts":"200"}</t>
-  </si>
-  <si>
-    <t>{"asserts":"400"}</t>
-  </si>
-  <si>
-    <t>登陆失败3</t>
-  </si>
-  <si>
     <t>测试参数</t>
   </si>
   <si>
@@ -227,22 +328,6 @@
     <t>{"suc":"1","assert_vale":"登录"}</t>
   </si>
   <si>
-    <t>{"method":"GET"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"method":"POST"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url":"/cgi-bin/token?grant_type=client_credential&amp;appid=wxc83b79a8673a4286&amp;secret=2f42b90bfd9da20ae3de3482fcd658e1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.weixin.qq.com/cgi-bin/token?grant_type=client_credential&amp;appid=wxc83b79a8673a4286&amp;secret=2f42b90bfd9da20ae3de3482fcd658e1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://mp.weixin.qq.com/wiki</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"url":"/cgi-bin/menu/create?access_token=17__2ods6Mgx_DkN-woRlrhPk-Qwz5fuGACmkfzD298nPsx9v2BPaUepBllJg1629IJSaeaaMLZnNhNd-ix9JTnsZ2vqFfW3ql0-56S7FuENBvDZoE-uybpN3paoBhtriT9Z54fXsNPIr6BlYulEWQjAFANFZ"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,19 +344,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"body":"adfa"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"body":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"body":"大熊猫（学名：Ailuropoda melanoleuca）：属于食肉目、熊科、大熊猫亚科和大熊猫属唯一的哺乳动物，头躯长1.2-1.8米，尾长10-12厘米。体重80-120千克，最重可达180千克，体色为黑白两色，它有着圆圆的脸颊，大大的黑眼圈，胖嘟嘟的身体，标志性的内八字的行走方式，也有解剖刀般锋利的爪子。是世界上最可爱的动物之一"}</t>
+    <t>请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/menu/create?access_token=ACCESS_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appid=wxc83b79a8673a4286&amp;secret=2f42b90bfd9da20ae3de3482fcd658e1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "button":[
+     {    
+          "type":"click",
+          "name":"今日歌曲",
+          "key":"V1001_TODAY_MUSIC"
+      },
+      {
+           "name":"菜单",
+           "sub_button":[
+           {    
+               "type":"view",
+               "name":"搜索",
+               "url":"http://www.soso.com/"
+            },
+            {
+                 "type":"miniprogram",
+                 "name":"wxa",
+                 "url":"http://mp.weixin.qq.com",
+                 "appid":"wx286b93c14bbf93aa",
+                 "pagepath":"pages/lunar/index"
+             },
+            {
+               "type":"click",
+               "name":"赞一下我们",
+               "key":"V1001_GOOD"
+            }]
+       }]
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +454,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,7 +497,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,113 +785,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="5" width="37.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="37.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -770,108 +893,108 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -896,76 +1019,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -990,58 +1113,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1065,10 +1188,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PicaHealth\Desktop\projects\API_python3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wushaofeng/PycharmProjects/API_python3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84EA60AB-E8AD-424E-A16F-93BD9FDE2453}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9492"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PicaHealth</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -365,10 +366,6 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appid=wxc83b79a8673a4286&amp;secret=2f42b90bfd9da20ae3de3482fcd658e1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -411,12 +408,16 @@
     <t>400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>appid=*&amp;secret=*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,24 +785,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="22.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="37.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="4" customWidth="1"/>
+    <col min="4" max="5" width="37.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="6" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="22.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -821,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="22.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -835,13 +836,13 @@
         <v>57</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -855,10 +856,10 @@
         <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -870,22 +871,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
     <col min="3" max="3" width="101" customWidth="1"/>
-    <col min="4" max="4" width="50.21875" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -913,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -927,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -941,7 +942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -955,7 +956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -969,7 +970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -983,7 +984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1004,20 +1005,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="60.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.1640625" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1081,12 +1082,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1098,20 +1099,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="67.6640625" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1174,19 +1175,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1197,7 +1198,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
